--- a/docs/project planner test cases.xlsx
+++ b/docs/project planner test cases.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlsuazo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01275363-673C-4F4E-89BD-1478952E41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFC0841-0F3C-4B82-AA35-12B9E82E0DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A62E477-75B3-496D-A3EF-FBD7063D1A5E}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{6A62E477-75B3-496D-A3EF-FBD7063D1A5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Use cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Negative Scenarios" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>Negative Scenarios</t>
   </si>
@@ -307,6 +308,352 @@
     "timestamp": "2025-09-10T16:00:08.7128902",
     "status": 400
 }</t>
+  </si>
+  <si>
+    <t>create a new project</t>
+  </si>
+  <si>
+    <t>Send a GET request</t>
+  </si>
+  <si>
+    <t>{"name":"My project"}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 4,
+    "name": "My Project",
+    "code": "RH3LNY",
+    "tasks": null
+}</t>
+  </si>
+  <si>
+    <t>/api/projects/</t>
+  </si>
+  <si>
+    <t>Send a POST request</t>
+  </si>
+  <si>
+    <t>get all projects</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 4,
+        "name": "My Project",
+        "code": "RH3LNY",
+        "tasks": []
+    },
+    {
+        "id": 5,
+        "name": "My Project 2",
+        "code": "PDZM8T",
+        "tasks": []
+    }
+]</t>
+  </si>
+  <si>
+    <t>Get project details</t>
+  </si>
+  <si>
+    <t>Pass the id on the request url</t>
+  </si>
+  <si>
+    <t>{
+    "id": 1,
+    "name": "Project 1",
+    "code": "9R2K3K",
+    "tasks": [
+        {
+            "id": 1,
+            "name": "task 1",
+            "projectCode": "9R2K3K",
+            "duration": 8,
+            "status": "NOT_STARTED",
+            "startDate": "2025-09-21",
+            "endDate": "2025-09-28",
+            "dependencies": []
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>delete project</t>
+  </si>
+  <si>
+    <t>Returns 204 No content. Project is removed from database.</t>
+  </si>
+  <si>
+    <t>an existing project with id = {id}</t>
+  </si>
+  <si>
+    <t>USE CASES</t>
+  </si>
+  <si>
+    <t>create task (no dependencies)</t>
+  </si>
+  <si>
+    <t>an existing project</t>
+  </si>
+  <si>
+    <t>Send POST request using the sample</t>
+  </si>
+  <si>
+    <t>{
+    "name":"My task",
+    "projectCode": "RH3LNY",
+    "startDate": "2025-09-09",
+    "endDate": "2025-09-11",
+    "dependencyIds":[]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 22,
+    "name": "My task",
+    "projectCode": "RH3LNY",
+    "duration": 3,
+    "status": "NOT_STARTED",
+    "startDate": "2025-09-09",
+    "endDate": "2025-09-11",
+    "dependencies": []
+}</t>
+  </si>
+  <si>
+    <t>/api/tasks/code/{projectCode}</t>
+  </si>
+  <si>
+    <t>retrieve all tasks under a project</t>
+  </si>
+  <si>
+    <t>Send GET request with valid project code</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "id": 22,
+        "name": "My task",
+        "projectCode": "RH3LNY",
+        "duration": 3,
+        "status": "NOT_STARTED",
+        "startDate": "2025-09-09",
+        "endDate": "2025-09-11",
+        "dependencies": []
+    },
+    {
+        "id": 23,
+        "name": "My task 2",
+        "projectCode": "RH3LNY",
+        "duration": 3,
+        "status": "NOT_STARTED",
+        "startDate": "2025-09-09",
+        "endDate": "2025-09-11",
+        "dependencies": []
+    }
+]</t>
+  </si>
+  <si>
+    <t>retrieve details of task</t>
+  </si>
+  <si>
+    <t>task with given id must exist</t>
+  </si>
+  <si>
+    <t>send GET request</t>
+  </si>
+  <si>
+    <t>create task (with dependencies)</t>
+  </si>
+  <si>
+    <t>an existing project and an existing task. Start date should be later than dependency task's end date</t>
+  </si>
+  <si>
+    <t>{
+    "name":"My task 3",
+    "projectCode": "RH3LNY",
+    "startDate": "2025-09-12",
+    "endDate": "2025-09-15",
+    "dependencyIds":[22]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 24,
+    "name": "My task 3",
+    "projectCode": "RH3LNY",
+    "duration": 4,
+    "status": "NOT_STARTED",
+    "startDate": "2025-09-12",
+    "endDate": "2025-09-15",
+    "dependencies": [
+        {
+            "id": 22,
+            "name": "My task"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>Update an existing task</t>
+  </si>
+  <si>
+    <t>send PUT request with updated name, dates, status, or dependencies</t>
+  </si>
+  <si>
+    <t>{
+    "id": 23,
+    "name": "Updated Task",
+    "projectCode": "RH3LNY",
+    "duration": 3,
+    "status": "NOT_STARTED",
+    "startDate": "2025-09-23",
+    "endDate": "2025-09-25",
+    "dependencies": [
+        {
+            "id": 22,
+            "name": "My task"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "name":"Updated Task",
+    "status":"NOT_STARTED",
+    "startDate": "2025-09-23",
+    "endDate": "2025-09-25",
+    "dependencyIds":[22]
+}</t>
+  </si>
+  <si>
+    <t>Delete task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set DELETE request </t>
+  </si>
+  <si>
+    <t>Returns 204 No content. Task is removed from database.</t>
+  </si>
+  <si>
+    <t>/api/projects/schedule/{id}</t>
+  </si>
+  <si>
+    <t>Generate project schedule</t>
+  </si>
+  <si>
+    <t>Project must have an existing task</t>
+  </si>
+  <si>
+    <t>Send POST request with valid project ID</t>
+  </si>
+  <si>
+    <t>{
+    "tasks": [
+        {
+            "id": 22,
+            "name": "My task",
+            "projectCode": "RH3LNY",
+            "duration": 3,
+            "status": "NOT_STARTED",
+            "startDate": "2025-09-09",
+            "endDate": "2025-09-11",
+            "dependencies": []
+        },
+        {
+            "id": 23,
+            "name": "Updated Task",
+            "projectCode": "RH3LNY",
+            "duration": 3,
+            "status": "NOT_STARTED",
+            "startDate": "2025-09-12",
+            "endDate": "2025-09-14",
+            "dependencies": [
+                {
+                    "id": 22,
+                    "name": "My task"
+                }
+            ]
+        },
+        {
+            "id": 24,
+            "name": "My task 3",
+            "projectCode": "RH3LNY",
+            "duration": 4,
+            "status": "NOT_STARTED",
+            "startDate": "2025-09-12",
+            "endDate": "2025-09-15",
+            "dependencies": [
+                {
+                    "id": 22,
+                    "name": "My task"
+                }
+            ]
+        }
+    ],
+    "projectDuration": 7
+}</t>
+  </si>
+  <si>
+    <t>/api/project/schedule/all</t>
+  </si>
+  <si>
+    <t>Generate schedule for all projects</t>
+  </si>
+  <si>
+    <t>Atleast one project exists with tasks</t>
+  </si>
+  <si>
+    <t>Send POST request</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "projectName": "My Project",
+        "projectId": 4,
+        "tasks": [
+            {
+                "id": 22,
+                "name": "My task",
+                "projectCode": "RH3LNY",
+                "duration": 3,
+                "status": "NOT_STARTED",
+                "startDate": "2025-09-09",
+                "endDate": "2025-09-11",
+                "dependencies": []
+            },
+            {
+                "id": 23,
+                "name": "Updated Task",
+                "projectCode": "RH3LNY",
+                "duration": 3,
+                "status": "NOT_STARTED",
+                "startDate": "2025-09-12",
+                "endDate": "2025-09-14",
+                "dependencies": [
+                    {
+                        "id": 22,
+                        "name": "My task"
+                    }
+                ]
+            },
+            {
+                "id": 24,
+                "name": "My task 3",
+                "projectCode": "RH3LNY",
+                "duration": 4,
+                "status": "NOT_STARTED",
+                "startDate": "2025-09-12",
+                "endDate": "2025-09-15",
+                "dependencies": [
+                    {
+                        "id": 22,
+                        "name": "My task"
+                    }
+                ]
+            }
+        ],
+        "projectDuration": 7
+    }
+]</t>
   </si>
 </sst>
 </file>
@@ -356,8 +703,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -704,324 +1054,673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FC0B9A-0B50-4908-A8AD-54B86991B307}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC79F7E1-2794-48DA-B1C0-A6EC91E4098F}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="35.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FC0B9A-0B50-4908-A8AD-54B86991B307}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="35.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
